--- a/public/templates/Mau-import-hoc vien.xlsx
+++ b/public/templates/Mau-import-hoc vien.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\js\nodejs\LMS_BE\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AF6387-B193-4330-A319-DD1C7089DCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5EE7B-ADC9-40CB-97D2-D1C0AF9E2CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{17556A5D-10EE-46B4-AAD0-39D4D97B2A73}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập</t>
+  </si>
+  <si>
+    <t>Mật khẩu</t>
   </si>
 </sst>
 </file>
@@ -524,13 +530,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -590,9 +595,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -630,7 +635,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -736,7 +741,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -878,7 +883,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -886,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26850A6-3FDF-464B-A8AD-22641AFEE1B4}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,9 +903,11 @@
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="6" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -922,15 +929,20 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
